--- a/JBER_new/KELLEN master_wb.xlsx
+++ b/JBER_new/KELLEN master_wb.xlsx
@@ -14,13 +14,14 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -332,10 +333,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="M/D/YY;@"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -404,7 +406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,6 +430,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,7 +443,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,11 +464,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -470,16 +476,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal 3" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal 3" xfId="22" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -493,10 +516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1413"/>
+  <dimension ref="A1:U1751"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1386" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1565" activeCellId="0" sqref="B1565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,7 +562,7 @@
     <col collapsed="false" hidden="false" max="1025" min="196" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24581,6 +24604,5598 @@
     <row r="1413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1417" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="8" t="n">
+        <v>42495</v>
+      </c>
+      <c r="B1417" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1417" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1417" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1417" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="8" t="n">
+        <v>42496</v>
+      </c>
+      <c r="B1418" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1418" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1418" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1418" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="8" t="n">
+        <v>42497</v>
+      </c>
+      <c r="B1419" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1419" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1419" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1419" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="8" t="n">
+        <v>42498</v>
+      </c>
+      <c r="B1420" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1420" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1420" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="8" t="n">
+        <v>42499</v>
+      </c>
+      <c r="B1421" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1421" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1421" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1421" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="8" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B1422" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1422" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1422" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1422" s="0" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="8" t="n">
+        <v>42501</v>
+      </c>
+      <c r="B1423" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1423" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1423" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="8" t="n">
+        <v>42502</v>
+      </c>
+      <c r="B1424" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1424" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1424" s="0" t="n">
+        <v>13.375</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="8" t="n">
+        <v>42503</v>
+      </c>
+      <c r="B1425" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1425" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1425" s="0" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="8" t="n">
+        <v>42504</v>
+      </c>
+      <c r="B1426" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1426" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1426" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1426" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="8" t="n">
+        <v>42505</v>
+      </c>
+      <c r="B1427" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1427" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1427" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1427" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="8" t="n">
+        <v>42506</v>
+      </c>
+      <c r="B1428" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1428" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1428" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1428" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="8" t="n">
+        <v>42507</v>
+      </c>
+      <c r="B1429" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1429" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1429" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1429" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="8" t="n">
+        <v>42508</v>
+      </c>
+      <c r="B1430" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1430" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1430" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1430" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="8" t="n">
+        <v>42509</v>
+      </c>
+      <c r="B1431" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1431" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D1431" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1431" s="0" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="8" t="n">
+        <v>42510</v>
+      </c>
+      <c r="B1432" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1432" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D1432" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1432" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="8" t="n">
+        <v>42511</v>
+      </c>
+      <c r="B1433" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1433" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1433" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1433" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="8" t="n">
+        <v>42512</v>
+      </c>
+      <c r="B1434" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1434" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1434" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1434" s="0" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="8" t="n">
+        <v>42513</v>
+      </c>
+      <c r="B1435" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1435" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1435" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1435" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="8" t="n">
+        <v>42514</v>
+      </c>
+      <c r="B1436" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1436" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1436" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1436" s="0" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="8" t="n">
+        <v>42515</v>
+      </c>
+      <c r="B1437" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1437" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D1437" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1437" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="8" t="n">
+        <v>42516</v>
+      </c>
+      <c r="B1438" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1438" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1438" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1438" s="0" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="8" t="n">
+        <v>42517</v>
+      </c>
+      <c r="B1439" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1439" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1439" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1439" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="8" t="n">
+        <v>42518</v>
+      </c>
+      <c r="B1440" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1440" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D1440" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1440" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="8" t="n">
+        <v>42519</v>
+      </c>
+      <c r="B1441" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1441" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D1441" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1441" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="8" t="n">
+        <v>42520</v>
+      </c>
+      <c r="B1442" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1442" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D1442" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1442" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="8" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B1443" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1443" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1443" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1443" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1444" s="8" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B1444" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1444" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D1444" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1444" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="8" t="n">
+        <v>42523</v>
+      </c>
+      <c r="B1445" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1445" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1445" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1445" s="0" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="8" t="n">
+        <v>42524</v>
+      </c>
+      <c r="B1446" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1446" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1446" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1446" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="8" t="n">
+        <v>42525</v>
+      </c>
+      <c r="B1447" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1447" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1447" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1447" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="8" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B1448" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1448" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1448" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1448" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="8" t="n">
+        <v>42527</v>
+      </c>
+      <c r="B1449" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1449" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1449" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1449" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="8" t="n">
+        <v>42528</v>
+      </c>
+      <c r="B1450" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1450" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="D1450" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1450" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="8" t="n">
+        <v>42529</v>
+      </c>
+      <c r="B1451" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1451" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1451" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1451" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="8" t="n">
+        <v>42530</v>
+      </c>
+      <c r="B1452" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1452" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D1452" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1452" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="8" t="n">
+        <v>42531</v>
+      </c>
+      <c r="B1453" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1453" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D1453" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1453" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="8" t="n">
+        <v>42532</v>
+      </c>
+      <c r="B1454" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1454" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1454" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1454" s="0" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="8" t="n">
+        <v>42533</v>
+      </c>
+      <c r="B1455" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1455" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1455" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1455" s="0" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="8" t="n">
+        <v>42534</v>
+      </c>
+      <c r="B1456" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1456" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1456" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1456" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="8" t="n">
+        <v>42535</v>
+      </c>
+      <c r="B1457" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1457" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1457" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1457" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="8" t="n">
+        <v>42536</v>
+      </c>
+      <c r="B1458" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1458" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1458" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1458" s="0" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="8" t="n">
+        <v>42537</v>
+      </c>
+      <c r="B1459" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1459" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1459" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1459" s="0" t="n">
+        <v>20.375</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="8" t="n">
+        <v>42538</v>
+      </c>
+      <c r="B1460" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1460" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1460" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1460" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="8" t="n">
+        <v>42539</v>
+      </c>
+      <c r="B1461" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1461" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1461" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1461" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="8" t="n">
+        <v>42540</v>
+      </c>
+      <c r="B1462" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1462" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1462" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1462" s="0" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="8" t="n">
+        <v>42541</v>
+      </c>
+      <c r="B1463" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1463" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1463" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1463" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="8" t="n">
+        <v>42542</v>
+      </c>
+      <c r="B1464" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1464" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1464" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1464" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="8" t="n">
+        <v>42543</v>
+      </c>
+      <c r="B1465" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1465" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1465" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1465" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="8" t="n">
+        <v>42544</v>
+      </c>
+      <c r="B1466" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1466" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1466" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1466" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="8" t="n">
+        <v>42546</v>
+      </c>
+      <c r="B1467" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1467" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1467" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="8" t="n">
+        <v>42495</v>
+      </c>
+      <c r="B1469" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1469" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1469" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="8" t="n">
+        <v>42496</v>
+      </c>
+      <c r="B1470" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1470" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1470" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="8" t="n">
+        <v>42497</v>
+      </c>
+      <c r="B1471" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1471" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1471" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="8" t="n">
+        <v>42498</v>
+      </c>
+      <c r="B1472" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1472" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1472" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="8" t="n">
+        <v>42499</v>
+      </c>
+      <c r="B1473" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1473" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1473" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="8" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B1474" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1474" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1474" s="0" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="8" t="n">
+        <v>42501</v>
+      </c>
+      <c r="B1475" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1475" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1475" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1475" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="8" t="n">
+        <v>42502</v>
+      </c>
+      <c r="B1476" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1476" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1476" s="0" t="n">
+        <v>13.375</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="8" t="n">
+        <v>42503</v>
+      </c>
+      <c r="B1477" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1477" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1477" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1477" s="0" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="8" t="n">
+        <v>42504</v>
+      </c>
+      <c r="B1478" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1478" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1478" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1478" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="8" t="n">
+        <v>42505</v>
+      </c>
+      <c r="B1479" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1479" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1479" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1479" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="8" t="n">
+        <v>42506</v>
+      </c>
+      <c r="B1480" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1480" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1480" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1480" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="8" t="n">
+        <v>42507</v>
+      </c>
+      <c r="B1481" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1481" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1481" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1481" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="8" t="n">
+        <v>42508</v>
+      </c>
+      <c r="B1482" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1482" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1482" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1482" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="8" t="n">
+        <v>42509</v>
+      </c>
+      <c r="B1483" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1483" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D1483" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1483" s="0" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="8" t="n">
+        <v>42510</v>
+      </c>
+      <c r="B1484" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1484" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1484" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1484" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="8" t="n">
+        <v>42511</v>
+      </c>
+      <c r="B1485" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1485" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1485" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1485" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="8" t="n">
+        <v>42512</v>
+      </c>
+      <c r="B1486" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1486" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1486" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1486" s="0" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="8" t="n">
+        <v>42513</v>
+      </c>
+      <c r="B1487" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1487" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1487" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1487" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="8" t="n">
+        <v>42514</v>
+      </c>
+      <c r="B1488" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1488" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1488" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1488" s="0" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="8" t="n">
+        <v>42515</v>
+      </c>
+      <c r="B1489" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1489" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D1489" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1489" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="8" t="n">
+        <v>42516</v>
+      </c>
+      <c r="B1490" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1490" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1490" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1490" s="0" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="8" t="n">
+        <v>42517</v>
+      </c>
+      <c r="B1491" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1491" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1491" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1491" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="8" t="n">
+        <v>42518</v>
+      </c>
+      <c r="B1492" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1492" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D1492" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1492" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="8" t="n">
+        <v>42519</v>
+      </c>
+      <c r="B1493" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1493" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1493" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1493" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="8" t="n">
+        <v>42520</v>
+      </c>
+      <c r="B1494" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1494" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1494" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1494" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="8" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B1495" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1495" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1495" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1495" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="8" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B1496" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1496" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1496" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1496" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="8" t="n">
+        <v>42523</v>
+      </c>
+      <c r="B1497" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1497" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1497" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1497" s="0" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="8" t="n">
+        <v>42524</v>
+      </c>
+      <c r="B1498" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1498" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1498" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1498" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="8" t="n">
+        <v>42525</v>
+      </c>
+      <c r="B1499" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1499" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1499" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1499" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="8" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B1500" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1500" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D1500" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1500" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="8" t="n">
+        <v>42527</v>
+      </c>
+      <c r="B1501" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1501" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1501" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1501" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="8" t="n">
+        <v>42528</v>
+      </c>
+      <c r="B1502" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1502" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="D1502" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1502" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="8" t="n">
+        <v>42529</v>
+      </c>
+      <c r="B1503" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1503" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D1503" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1503" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="8" t="n">
+        <v>42530</v>
+      </c>
+      <c r="B1504" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1504" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D1504" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1504" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="8" t="n">
+        <v>42531</v>
+      </c>
+      <c r="B1505" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1505" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1505" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1505" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="8" t="n">
+        <v>42532</v>
+      </c>
+      <c r="B1506" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1506" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1506" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1506" s="0" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="8" t="n">
+        <v>42533</v>
+      </c>
+      <c r="B1507" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1507" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1507" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1507" s="0" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="8" t="n">
+        <v>42534</v>
+      </c>
+      <c r="B1508" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1508" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1508" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1508" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="8" t="n">
+        <v>42535</v>
+      </c>
+      <c r="B1509" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1509" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1509" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1509" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="8" t="n">
+        <v>42536</v>
+      </c>
+      <c r="B1510" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1510" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1510" s="0" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="8" t="n">
+        <v>42537</v>
+      </c>
+      <c r="B1511" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1511" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1511" s="0" t="n">
+        <v>20.375</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="8" t="n">
+        <v>42538</v>
+      </c>
+      <c r="B1512" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1512" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1512" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="8" t="n">
+        <v>42539</v>
+      </c>
+      <c r="B1513" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1513" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1513" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1513" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="8" t="n">
+        <v>42540</v>
+      </c>
+      <c r="B1514" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1514" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1514" s="0" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="8" t="n">
+        <v>42541</v>
+      </c>
+      <c r="B1515" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1515" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1515" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="8" t="n">
+        <v>42542</v>
+      </c>
+      <c r="B1516" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1516" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1516" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1517" s="8" t="n">
+        <v>42543</v>
+      </c>
+      <c r="B1517" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1517" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1517" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="8" t="n">
+        <v>42544</v>
+      </c>
+      <c r="B1518" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1518" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1518" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="8" t="n">
+        <v>42546</v>
+      </c>
+      <c r="B1519" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1519" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1521" s="8" t="n">
+        <v>42495</v>
+      </c>
+      <c r="B1521" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1521" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1521" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1522" s="8" t="n">
+        <v>42496</v>
+      </c>
+      <c r="B1522" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1522" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1522" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1523" s="8" t="n">
+        <v>42497</v>
+      </c>
+      <c r="B1523" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1523" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1523" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1523" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1524" s="8" t="n">
+        <v>42498</v>
+      </c>
+      <c r="B1524" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1524" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1524" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1525" s="8" t="n">
+        <v>42499</v>
+      </c>
+      <c r="B1525" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1525" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1525" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1526" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1526" s="8" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B1526" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1526" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1526" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1526" s="0" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="1527" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1527" s="8" t="n">
+        <v>42501</v>
+      </c>
+      <c r="B1527" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1527" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1527" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1528" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1528" s="8" t="n">
+        <v>42502</v>
+      </c>
+      <c r="B1528" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1528" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1528" s="0" t="n">
+        <v>13.375</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1529" s="8" t="n">
+        <v>42503</v>
+      </c>
+      <c r="B1529" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1529" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1529" s="0" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1530" s="8" t="n">
+        <v>42504</v>
+      </c>
+      <c r="B1530" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1530" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1530" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1530" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1531" s="8" t="n">
+        <v>42505</v>
+      </c>
+      <c r="B1531" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1531" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1531" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1531" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1532" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1532" s="8" t="n">
+        <v>42506</v>
+      </c>
+      <c r="B1532" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1532" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1532" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1532" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1533" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1533" s="8" t="n">
+        <v>42507</v>
+      </c>
+      <c r="B1533" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1533" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1533" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1533" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1534" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1534" s="8" t="n">
+        <v>42508</v>
+      </c>
+      <c r="B1534" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1534" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1534" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1534" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1535" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1535" s="8" t="n">
+        <v>42509</v>
+      </c>
+      <c r="B1535" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1535" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D1535" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1535" s="0" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1536" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1536" s="8" t="n">
+        <v>42510</v>
+      </c>
+      <c r="B1536" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1536" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1536" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1536" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1537" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1537" s="8" t="n">
+        <v>42511</v>
+      </c>
+      <c r="B1537" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1537" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1537" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1537" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1538" s="8" t="n">
+        <v>42512</v>
+      </c>
+      <c r="B1538" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1538" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1538" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1538" s="0" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1539" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1539" s="8" t="n">
+        <v>42513</v>
+      </c>
+      <c r="B1539" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1539" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1539" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1539" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1540" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1540" s="8" t="n">
+        <v>42514</v>
+      </c>
+      <c r="B1540" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1540" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1540" s="0" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1541" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1541" s="8" t="n">
+        <v>42515</v>
+      </c>
+      <c r="B1541" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1541" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1541" s="0" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1542" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1542" s="8" t="n">
+        <v>42516</v>
+      </c>
+      <c r="B1542" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1542" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1542" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1542" s="0" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1543" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1543" s="8" t="n">
+        <v>42517</v>
+      </c>
+      <c r="B1543" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1543" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1543" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1544" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1544" s="8" t="n">
+        <v>42518</v>
+      </c>
+      <c r="B1544" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1544" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1544" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1545" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1545" s="8" t="n">
+        <v>42519</v>
+      </c>
+      <c r="B1545" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1545" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1545" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1545" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1546" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1546" s="8" t="n">
+        <v>42520</v>
+      </c>
+      <c r="B1546" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1546" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1546" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1547" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1547" s="8" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B1547" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1547" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1547" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1547" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1548" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1548" s="8" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B1548" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1548" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1548" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1548" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1549" s="8" t="n">
+        <v>42523</v>
+      </c>
+      <c r="B1549" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1549" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1549" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1549" s="0" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1550" s="8" t="n">
+        <v>42524</v>
+      </c>
+      <c r="B1550" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1550" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1550" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1551" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1551" s="8" t="n">
+        <v>42525</v>
+      </c>
+      <c r="B1551" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1551" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1551" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1552" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1552" s="8" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B1552" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1552" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1552" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1553" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1553" s="8" t="n">
+        <v>42527</v>
+      </c>
+      <c r="B1553" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1553" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1553" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1554" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1554" s="8" t="n">
+        <v>42528</v>
+      </c>
+      <c r="B1554" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1554" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1554" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1554" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1555" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1555" s="8" t="n">
+        <v>42529</v>
+      </c>
+      <c r="B1555" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1555" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1555" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1555" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1556" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1556" s="8" t="n">
+        <v>42530</v>
+      </c>
+      <c r="B1556" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1556" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1556" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1556" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1557" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1557" s="8" t="n">
+        <v>42531</v>
+      </c>
+      <c r="B1557" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1557" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1557" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1558" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1558" s="8" t="n">
+        <v>42532</v>
+      </c>
+      <c r="B1558" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1558" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1558" s="0" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1559" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1559" s="8" t="n">
+        <v>42533</v>
+      </c>
+      <c r="B1559" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1559" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1559" s="0" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1560" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1560" s="8" t="n">
+        <v>42534</v>
+      </c>
+      <c r="B1560" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1560" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1560" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1561" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1561" s="8" t="n">
+        <v>42535</v>
+      </c>
+      <c r="B1561" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1561" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1561" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1562" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1562" s="8" t="n">
+        <v>42536</v>
+      </c>
+      <c r="B1562" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1562" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1562" s="0" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1563" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1563" s="8" t="n">
+        <v>42537</v>
+      </c>
+      <c r="B1563" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1563" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1563" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1563" s="0" t="n">
+        <v>20.375</v>
+      </c>
+    </row>
+    <row r="1564" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1564" s="8" t="n">
+        <v>42538</v>
+      </c>
+      <c r="B1564" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1564" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1564" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1564" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1565" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1565" s="8" t="n">
+        <v>42539</v>
+      </c>
+      <c r="B1565" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1565" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1565" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1565" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1566" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1566" s="8" t="n">
+        <v>42540</v>
+      </c>
+      <c r="B1566" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1566" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1566" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1566" s="0" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1567" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1567" s="8" t="n">
+        <v>42541</v>
+      </c>
+      <c r="B1567" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1567" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1567" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1567" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1568" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1568" s="8" t="n">
+        <v>42542</v>
+      </c>
+      <c r="B1568" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1568" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1568" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1568" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1569" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1569" s="8" t="n">
+        <v>42543</v>
+      </c>
+      <c r="B1569" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1569" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1569" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1569" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1570" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1570" s="8" t="n">
+        <v>42544</v>
+      </c>
+      <c r="B1570" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1570" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1570" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1570" s="0" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1571" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1571" s="8" t="n">
+        <v>42546</v>
+      </c>
+      <c r="B1571" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1571" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1571" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1575" s="9" t="n">
+        <v>42556</v>
+      </c>
+      <c r="B1575" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1575" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1575" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1575" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1576" s="11" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B1576" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1576" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1576" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1576" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1577" s="11" t="n">
+        <v>42558</v>
+      </c>
+      <c r="B1577" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1577" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1577" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1577" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1578" s="11" t="n">
+        <v>42559</v>
+      </c>
+      <c r="B1578" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1578" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1578" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1578" s="10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1579" s="11" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B1579" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1579" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1579" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1580" s="11" t="n">
+        <v>42561</v>
+      </c>
+      <c r="B1580" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1580" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1580" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1581" s="11" t="n">
+        <v>42562</v>
+      </c>
+      <c r="B1581" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1581" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1581" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1581" s="10" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1582" s="11" t="n">
+        <v>42563</v>
+      </c>
+      <c r="B1582" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1582" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1582" s="10" t="n">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1583" s="11" t="n">
+        <v>42564</v>
+      </c>
+      <c r="B1583" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1583" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1583" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1583" s="10" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1584" s="11" t="n">
+        <v>42565</v>
+      </c>
+      <c r="B1584" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1584" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1584" s="10" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1585" s="11" t="n">
+        <v>42566</v>
+      </c>
+      <c r="B1585" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1585" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1585" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1585" s="10" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1586" s="9" t="n">
+        <v>42567</v>
+      </c>
+      <c r="B1586" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1586" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1586" s="10" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1587" s="9" t="n">
+        <v>42568</v>
+      </c>
+      <c r="B1587" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1587" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1587" s="10" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1588" s="9" t="n">
+        <v>42569</v>
+      </c>
+      <c r="B1588" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1588" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1588" s="10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1589" s="9" t="n">
+        <v>42570</v>
+      </c>
+      <c r="B1589" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1589" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1589" s="10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1590" s="9" t="n">
+        <v>42571</v>
+      </c>
+      <c r="B1590" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1590" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1590" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1590" s="10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1591" s="9" t="n">
+        <v>42572</v>
+      </c>
+      <c r="B1591" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1591" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1591" s="10" t="n">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="1592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1592" s="9" t="n">
+        <v>42573</v>
+      </c>
+      <c r="B1592" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1592" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1592" s="10" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1593" s="9" t="n">
+        <v>42574</v>
+      </c>
+      <c r="B1593" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1593" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1593" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1593" s="10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1594" s="9" t="n">
+        <v>42575</v>
+      </c>
+      <c r="B1594" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1594" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1594" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1594" s="10" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1595" s="9" t="n">
+        <v>42576</v>
+      </c>
+      <c r="B1595" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1595" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="D1595" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1595" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1596" s="9" t="n">
+        <v>42577</v>
+      </c>
+      <c r="B1596" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1596" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1596" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1596" s="10" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1597" s="9" t="n">
+        <v>42578</v>
+      </c>
+      <c r="B1597" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1597" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1597" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1597" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1598" s="9" t="n">
+        <v>42579</v>
+      </c>
+      <c r="B1598" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1598" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1598" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1598" s="10" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1599" s="9" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B1599" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1599" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1599" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1599" s="10" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1600" s="9" t="n">
+        <v>42581</v>
+      </c>
+      <c r="B1600" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1600" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1600" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1600" s="10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1601" s="9" t="n">
+        <v>42582</v>
+      </c>
+      <c r="B1601" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1601" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1601" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1601" s="10" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1602" s="9" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B1602" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1602" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1602" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1602" s="10" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1603" s="9" t="n">
+        <v>42584</v>
+      </c>
+      <c r="B1603" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1603" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1603" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1603" s="10" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1604" s="9" t="n">
+        <v>42585</v>
+      </c>
+      <c r="B1604" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1604" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D1604" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1604" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1605" s="9" t="n">
+        <v>42586</v>
+      </c>
+      <c r="B1605" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1605" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1605" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1605" s="10" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1606" s="9" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B1606" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1606" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1606" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1606" s="10" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1607" s="9" t="n">
+        <v>42588</v>
+      </c>
+      <c r="B1607" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1607" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1607" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1607" s="10" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="9" t="n">
+        <v>42589</v>
+      </c>
+      <c r="B1608" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1608" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1608" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1608" s="10" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="9" t="n">
+        <v>42590</v>
+      </c>
+      <c r="B1609" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1609" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1609" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1609" s="10" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="9" t="n">
+        <v>42591</v>
+      </c>
+      <c r="B1610" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1610" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1610" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1610" s="10" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="9" t="n">
+        <v>42592</v>
+      </c>
+      <c r="B1611" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1611" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1611" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1611" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="9" t="n">
+        <v>42593</v>
+      </c>
+      <c r="B1612" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1612" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1612" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1612" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="9" t="n">
+        <v>42594</v>
+      </c>
+      <c r="B1613" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1613" s="10" t="n">
+        <v>113</v>
+      </c>
+      <c r="D1613" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1613" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="9" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B1614" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1614" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="D1614" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1614" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="9" t="n">
+        <v>42596</v>
+      </c>
+      <c r="B1615" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1615" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="D1615" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1615" s="10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="9" t="n">
+        <v>42597</v>
+      </c>
+      <c r="B1616" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1616" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D1616" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1616" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="9" t="n">
+        <v>42598</v>
+      </c>
+      <c r="B1617" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1617" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D1617" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1617" s="10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="9" t="n">
+        <v>42599</v>
+      </c>
+      <c r="B1618" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1618" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D1618" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1618" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1619" s="9" t="n">
+        <v>42600</v>
+      </c>
+      <c r="B1619" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1619" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="D1619" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1619" s="10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="9" t="n">
+        <v>42601</v>
+      </c>
+      <c r="B1620" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1620" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="D1620" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1620" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="9" t="n">
+        <v>42602</v>
+      </c>
+      <c r="B1621" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1621" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1621" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1621" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="9" t="n">
+        <v>42603</v>
+      </c>
+      <c r="B1622" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1622" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1622" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1622" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="9" t="n">
+        <v>42604</v>
+      </c>
+      <c r="B1623" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1623" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D1623" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1623" s="10" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="9" t="n">
+        <v>42605</v>
+      </c>
+      <c r="B1624" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1624" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1624" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1624" s="10" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="9" t="n">
+        <v>42606</v>
+      </c>
+      <c r="B1625" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1625" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1625" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1625" s="10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="9" t="n">
+        <v>42607</v>
+      </c>
+      <c r="B1626" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1626" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1626" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1626" s="10" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="9" t="n">
+        <v>42608</v>
+      </c>
+      <c r="B1627" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1627" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1627" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1627" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="9" t="n">
+        <v>42609</v>
+      </c>
+      <c r="B1628" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1628" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1628" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1628" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="9" t="n">
+        <v>42610</v>
+      </c>
+      <c r="B1629" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1629" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1629" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1629" s="10" t="n">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="9" t="n">
+        <v>42611</v>
+      </c>
+      <c r="B1630" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1630" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1630" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1630" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="9" t="n">
+        <v>42612</v>
+      </c>
+      <c r="B1631" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1631" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1631" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1631" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1632" s="9" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B1632" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1632" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1632" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1632" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1633" s="9" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B1633" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1633" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1633" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1633" s="10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1634" s="9" t="n">
+        <v>42615</v>
+      </c>
+      <c r="B1634" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1634" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1634" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1634" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1635" s="9" t="n">
+        <v>42616</v>
+      </c>
+      <c r="B1635" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1635" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1635" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1635" s="10" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1636" s="9" t="n">
+        <v>42617</v>
+      </c>
+      <c r="B1636" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1636" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1636" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1636" s="10" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1637" s="9" t="n">
+        <v>42618</v>
+      </c>
+      <c r="B1637" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1637" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1637" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1637" s="10" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1638" s="9" t="n">
+        <v>42619</v>
+      </c>
+      <c r="B1638" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1638" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1638" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1638" s="10" t="n">
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1639" s="9" t="n">
+        <v>42620</v>
+      </c>
+      <c r="B1639" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1639" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1639" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1639" s="10" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1640" s="9" t="n">
+        <v>42621</v>
+      </c>
+      <c r="B1640" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1640" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1640" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1640" s="10" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1641" s="9" t="n">
+        <v>42622</v>
+      </c>
+      <c r="B1641" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1641" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1641" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1641" s="10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="9" t="n">
+        <v>42623</v>
+      </c>
+      <c r="B1642" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1642" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1642" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1642" s="10" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1643" s="9" t="n">
+        <v>42624</v>
+      </c>
+      <c r="B1643" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1643" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1643" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1643" s="10" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1644" s="9" t="n">
+        <v>42625</v>
+      </c>
+      <c r="B1644" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1644" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1644" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1644" s="10" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="9" t="n">
+        <v>42626</v>
+      </c>
+      <c r="B1645" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1645" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1645" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1645" s="10" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="9" t="n">
+        <v>42627</v>
+      </c>
+      <c r="B1646" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1646" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1646" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1646" s="10" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="9" t="n">
+        <v>42628</v>
+      </c>
+      <c r="B1647" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1647" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1647" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1647" s="10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="9" t="n">
+        <v>42629</v>
+      </c>
+      <c r="B1648" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1648" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1648" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1648" s="10" t="n">
+        <v>12.625</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="9" t="n">
+        <v>42630</v>
+      </c>
+      <c r="B1649" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1649" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1649" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1649" s="10" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="9" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B1650" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1650" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1650" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1650" s="10" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="9" t="n">
+        <v>42632</v>
+      </c>
+      <c r="B1651" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1651" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1651" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1651" s="10" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="9" t="n">
+        <v>42633</v>
+      </c>
+      <c r="B1652" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1652" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1652" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1652" s="10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="9" t="n">
+        <v>42634</v>
+      </c>
+      <c r="B1653" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1653" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1653" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1653" s="10" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="9" t="n">
+        <v>42635</v>
+      </c>
+      <c r="B1654" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1654" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1654" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1654" s="10" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="9" t="n">
+        <v>42636</v>
+      </c>
+      <c r="B1655" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1655" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1655" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1655" s="10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="9" t="n">
+        <v>42637</v>
+      </c>
+      <c r="B1656" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1656" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1656" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1656" s="10" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="9" t="n">
+        <v>42638</v>
+      </c>
+      <c r="B1657" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1657" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1657" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1657" s="10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="9" t="n">
+        <v>42639</v>
+      </c>
+      <c r="B1658" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1658" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1658" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1658" s="10" t="n">
+        <f aca="false">(10.25+10)/2</f>
+        <v>10.125</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="9" t="n">
+        <v>42640</v>
+      </c>
+      <c r="B1659" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1659" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1659" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1659" s="10" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="9" t="n">
+        <v>42641</v>
+      </c>
+      <c r="B1660" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1660" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1660" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1660" s="10" t="n">
+        <f aca="false">(9.25+10)/2</f>
+        <v>9.625</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="9" t="n">
+        <v>42642</v>
+      </c>
+      <c r="B1661" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1661" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1661" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1661" s="10" t="n">
+        <f aca="false">(9.75+9)/2</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="9" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B1662" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1662" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1662" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1662" s="10" t="n">
+        <f aca="false">(8.75+9.5)/2</f>
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="9" t="n">
+        <v>42556</v>
+      </c>
+      <c r="B1664" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1664" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1664" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1664" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="11" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B1665" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1665" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1665" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1665" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="11" t="n">
+        <v>42558</v>
+      </c>
+      <c r="B1666" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1666" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1666" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1666" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="11" t="n">
+        <v>42559</v>
+      </c>
+      <c r="B1667" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1667" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1667" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1667" s="10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="11" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B1668" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1668" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1668" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1668" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="11" t="n">
+        <v>42561</v>
+      </c>
+      <c r="B1669" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1669" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1669" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1669" s="10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="11" t="n">
+        <v>42562</v>
+      </c>
+      <c r="B1670" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1670" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1670" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1670" s="10" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="11" t="n">
+        <v>42563</v>
+      </c>
+      <c r="B1671" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1671" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1671" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1671" s="10" t="n">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="11" t="n">
+        <v>42564</v>
+      </c>
+      <c r="B1672" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1672" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1672" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1672" s="10" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1673" s="11" t="n">
+        <v>42565</v>
+      </c>
+      <c r="B1673" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1673" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1673" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1673" s="10" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="1674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1674" s="11" t="n">
+        <v>42566</v>
+      </c>
+      <c r="B1674" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1674" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1674" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1674" s="10" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="1675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1675" s="9" t="n">
+        <v>42567</v>
+      </c>
+      <c r="B1675" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1675" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1675" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1675" s="10" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="1676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1676" s="9" t="n">
+        <v>42568</v>
+      </c>
+      <c r="B1676" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1676" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1676" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1676" s="10" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1677" s="9" t="n">
+        <v>42569</v>
+      </c>
+      <c r="B1677" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1677" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1677" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1677" s="10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1678" s="9" t="n">
+        <v>42570</v>
+      </c>
+      <c r="B1678" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1678" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1678" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1678" s="10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1679" s="9" t="n">
+        <v>42571</v>
+      </c>
+      <c r="B1679" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1679" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1679" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1679" s="10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1680" s="9" t="n">
+        <v>42572</v>
+      </c>
+      <c r="B1680" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1680" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1680" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1680" s="10" t="n">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="1681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1681" s="9" t="n">
+        <v>42573</v>
+      </c>
+      <c r="B1681" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1681" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1681" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1681" s="10" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="1682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1682" s="9" t="n">
+        <v>42574</v>
+      </c>
+      <c r="B1682" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1682" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1682" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1682" s="10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1683" s="9" t="n">
+        <v>42575</v>
+      </c>
+      <c r="B1683" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1683" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1683" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1683" s="10" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1684" s="9" t="n">
+        <v>42576</v>
+      </c>
+      <c r="B1684" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1684" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1684" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1684" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1685" s="9" t="n">
+        <v>42577</v>
+      </c>
+      <c r="B1685" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1685" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1685" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1685" s="10" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1686" s="9" t="n">
+        <v>42578</v>
+      </c>
+      <c r="B1686" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1686" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1686" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1686" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1687" s="9" t="n">
+        <v>42579</v>
+      </c>
+      <c r="B1687" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1687" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1687" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1687" s="10" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="1688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1688" s="9" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B1688" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1688" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1688" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1688" s="10" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1689" s="9" t="n">
+        <v>42581</v>
+      </c>
+      <c r="B1689" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1689" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1689" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1689" s="10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1690" s="9" t="n">
+        <v>42582</v>
+      </c>
+      <c r="B1690" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1690" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1690" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1690" s="10" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1691" s="9" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B1691" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1691" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1691" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1691" s="10" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1692" s="9" t="n">
+        <v>42584</v>
+      </c>
+      <c r="B1692" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1692" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1692" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1692" s="10" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="9" t="n">
+        <v>42585</v>
+      </c>
+      <c r="B1693" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1693" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1693" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1693" s="10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1694" s="9" t="n">
+        <v>42586</v>
+      </c>
+      <c r="B1694" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1694" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1694" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1694" s="10" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1695" s="9" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B1695" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1695" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1695" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1695" s="10" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1696" s="9" t="n">
+        <v>42588</v>
+      </c>
+      <c r="B1696" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1696" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1696" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1696" s="10" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="9" t="n">
+        <v>42589</v>
+      </c>
+      <c r="B1697" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1697" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1697" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1697" s="10" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="9" t="n">
+        <v>42590</v>
+      </c>
+      <c r="B1698" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1698" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1698" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1698" s="10" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1699" s="9" t="n">
+        <v>42591</v>
+      </c>
+      <c r="B1699" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1699" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1699" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1699" s="10" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1700" s="9" t="n">
+        <v>42592</v>
+      </c>
+      <c r="B1700" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1700" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1700" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1700" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1701" s="9" t="n">
+        <v>42593</v>
+      </c>
+      <c r="B1701" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1701" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1701" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1701" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1702" s="9" t="n">
+        <v>42594</v>
+      </c>
+      <c r="B1702" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1702" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1702" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1702" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1703" s="9" t="n">
+        <v>42595</v>
+      </c>
+      <c r="B1703" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1703" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1703" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1703" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1704" s="9" t="n">
+        <v>42596</v>
+      </c>
+      <c r="B1704" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1704" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1704" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1704" s="10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1705" s="9" t="n">
+        <v>42597</v>
+      </c>
+      <c r="B1705" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1705" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1705" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1705" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1706" s="9" t="n">
+        <v>42598</v>
+      </c>
+      <c r="B1706" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1706" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1706" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1706" s="10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1707" s="9" t="n">
+        <v>42599</v>
+      </c>
+      <c r="B1707" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1707" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1707" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1707" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1708" s="9" t="n">
+        <v>42600</v>
+      </c>
+      <c r="B1708" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1708" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1708" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1708" s="10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1709" s="9" t="n">
+        <v>42601</v>
+      </c>
+      <c r="B1709" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1709" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1709" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1709" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1710" s="9" t="n">
+        <v>42602</v>
+      </c>
+      <c r="B1710" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1710" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1710" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1710" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1711" s="9" t="n">
+        <v>42603</v>
+      </c>
+      <c r="B1711" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1711" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1711" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1711" s="10" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1712" s="9" t="n">
+        <v>42604</v>
+      </c>
+      <c r="B1712" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1712" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1712" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1712" s="10" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1713" s="9" t="n">
+        <v>42605</v>
+      </c>
+      <c r="B1713" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1713" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1713" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1713" s="10" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1714" s="9" t="n">
+        <v>42606</v>
+      </c>
+      <c r="B1714" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1714" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1714" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1714" s="10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1715" s="9" t="n">
+        <v>42607</v>
+      </c>
+      <c r="B1715" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1715" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1715" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1715" s="10" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1716" s="9" t="n">
+        <v>42608</v>
+      </c>
+      <c r="B1716" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1716" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1716" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1716" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1717" s="9" t="n">
+        <v>42609</v>
+      </c>
+      <c r="B1717" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1717" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1717" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1717" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1718" s="9" t="n">
+        <v>42610</v>
+      </c>
+      <c r="B1718" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1718" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1718" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1718" s="10" t="n">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="1719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1719" s="9" t="n">
+        <v>42611</v>
+      </c>
+      <c r="B1719" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1719" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1719" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1719" s="10" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="1720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1720" s="9" t="n">
+        <v>42612</v>
+      </c>
+      <c r="B1720" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1720" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1720" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1720" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1721" s="9" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B1721" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1721" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1721" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1721" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="9" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B1722" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1722" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1722" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1722" s="10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1723" s="9" t="n">
+        <v>42615</v>
+      </c>
+      <c r="B1723" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1723" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1723" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1723" s="10" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="1724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1724" s="9" t="n">
+        <v>42616</v>
+      </c>
+      <c r="B1724" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1724" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1724" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1724" s="10" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1725" s="9" t="n">
+        <v>42617</v>
+      </c>
+      <c r="B1725" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1725" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1725" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1725" s="10" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1726" s="9" t="n">
+        <v>42618</v>
+      </c>
+      <c r="B1726" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1726" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1726" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1726" s="10" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1727" s="9" t="n">
+        <v>42619</v>
+      </c>
+      <c r="B1727" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1727" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1727" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1727" s="10" t="n">
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="1728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1728" s="9" t="n">
+        <v>42620</v>
+      </c>
+      <c r="B1728" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1728" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1728" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1728" s="10" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="1729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1729" s="9" t="n">
+        <v>42621</v>
+      </c>
+      <c r="B1729" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1729" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1729" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1729" s="10" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1730" s="9" t="n">
+        <v>42622</v>
+      </c>
+      <c r="B1730" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1730" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1730" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1730" s="10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1731" s="9" t="n">
+        <v>42623</v>
+      </c>
+      <c r="B1731" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1731" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1731" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1731" s="10" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1732" s="9" t="n">
+        <v>42624</v>
+      </c>
+      <c r="B1732" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1732" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1732" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1732" s="10" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1733" s="9" t="n">
+        <v>42625</v>
+      </c>
+      <c r="B1733" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1733" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1733" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1733" s="10" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1734" s="9" t="n">
+        <v>42626</v>
+      </c>
+      <c r="B1734" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1734" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1734" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1734" s="10" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1735" s="9" t="n">
+        <v>42627</v>
+      </c>
+      <c r="B1735" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1735" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1735" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1735" s="10" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="1736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1736" s="9" t="n">
+        <v>42628</v>
+      </c>
+      <c r="B1736" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1736" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1736" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1736" s="10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1737" s="9" t="n">
+        <v>42629</v>
+      </c>
+      <c r="B1737" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1737" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1737" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1737" s="10" t="n">
+        <v>12.625</v>
+      </c>
+    </row>
+    <row r="1738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1738" s="9" t="n">
+        <v>42630</v>
+      </c>
+      <c r="B1738" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1738" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1738" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1738" s="10" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1739" s="9" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B1739" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1739" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1739" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1739" s="10" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1740" s="9" t="n">
+        <v>42632</v>
+      </c>
+      <c r="B1740" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1740" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1740" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1740" s="10" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="1741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1741" s="9" t="n">
+        <v>42633</v>
+      </c>
+      <c r="B1741" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1741" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1741" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1741" s="10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1742" s="9" t="n">
+        <v>42634</v>
+      </c>
+      <c r="B1742" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1742" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1742" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1742" s="10" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="1743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1743" s="9" t="n">
+        <v>42635</v>
+      </c>
+      <c r="B1743" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1743" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1743" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1743" s="10" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="1744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1744" s="9" t="n">
+        <v>42636</v>
+      </c>
+      <c r="B1744" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1744" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1744" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1744" s="10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1745" s="9" t="n">
+        <v>42637</v>
+      </c>
+      <c r="B1745" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1745" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1745" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1745" s="10" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="1746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1746" s="9" t="n">
+        <v>42638</v>
+      </c>
+      <c r="B1746" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1746" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1746" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1746" s="10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1747" s="9" t="n">
+        <v>42639</v>
+      </c>
+      <c r="B1747" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1747" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1747" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1747" s="10" t="n">
+        <f aca="false">(10.25+10)/2</f>
+        <v>10.125</v>
+      </c>
+    </row>
+    <row r="1748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1748" s="9" t="n">
+        <v>42640</v>
+      </c>
+      <c r="B1748" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1748" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1748" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1748" s="10" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1749" s="9" t="n">
+        <v>42641</v>
+      </c>
+      <c r="B1749" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1749" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1749" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1749" s="10" t="n">
+        <f aca="false">(9.25+10)/2</f>
+        <v>9.625</v>
+      </c>
+    </row>
+    <row r="1750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1750" s="9" t="n">
+        <v>42642</v>
+      </c>
+      <c r="B1750" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1750" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1750" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1750" s="10" t="n">
+        <f aca="false">(9.75+9)/2</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="1751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1751" s="9" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B1751" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1751" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1751" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1751" s="10" t="n">
+        <f aca="false">(8.75+9.5)/2</f>
+        <v>9.125</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A901"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/JBER_new/KELLEN master_wb.xlsx
+++ b/JBER_new/KELLEN master_wb.xlsx
@@ -15,13 +15,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$A$901</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -328,6 +329,195 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>fry</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lifecycle</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>lengths (cm)</t>
+  </si>
+  <si>
+    <t>10, 9.5, 9.4, 9.5, 8.5, 8.5</t>
+  </si>
+  <si>
+    <t>4.5, 10.5, 9, 9.5, 9.25</t>
+  </si>
+  <si>
+    <t>9.5, 9, 9, 13.5, 13.5, 8.5</t>
+  </si>
+  <si>
+    <t>9.1, 9</t>
+  </si>
+  <si>
+    <t>10, 10, 9, 10</t>
+  </si>
+  <si>
+    <t>10.1, 9.5, 10, 9.2, 10, 10.1, 9, 8.7</t>
+  </si>
+  <si>
+    <t>8.1, 10.2, 11, 10.4, 10, 9, 10.2, 9.5, 9, 10, 10, 9.5</t>
+  </si>
+  <si>
+    <t>8.5, 9.1, 9.5, 9.5</t>
+  </si>
+  <si>
+    <t>9, 8.5, 9, 10, 8, 9, 9, 8.5, 9, 9, 8.5, 9.3, 9.5, 8</t>
+  </si>
+  <si>
+    <t>10.5, 10, 9.5, 9.5, 10, 9, 9.5, 9.5, 9.5, 10, 10.5, 9, 9</t>
+  </si>
+  <si>
+    <t>9.5, 9.5, 10, 11, 10, 9, 10.5, 9, 9.5, 8.75, 9.5, 8.5, 10, 9.5, 8.5, 8, 9.5, 9, 11.5, 9</t>
+  </si>
+  <si>
+    <t>8, 10, 8, 9, 9.5, 8.5, 9, 8, 9, 10, 9, 7, 9, 8, 9.75, 10, 10, 9, 9, 10, 9, 9, 9, 9.5</t>
+  </si>
+  <si>
+    <t>10, 9.5, 9.5, 9, 9.5</t>
+  </si>
+  <si>
+    <t>9.5, 9, 9, 8.5, 9.5, 8.5, 9, 8.5, 8.5, 8, 9.5, 9.5, 8.5, 8.5, 9.5, 9, 10, 9.5, 8.5, 10, 9.75, 9, 8.5, 9.5</t>
+  </si>
+  <si>
+    <t>10, 8.5, 10, 8.5, 9, 8, 9, 9, 9, 7.5, 8.5, 9</t>
+  </si>
+  <si>
+    <t>9, 6, 9, 9.5, 8, 8.5, 10, 9, 8, 8.5, 9, 9.5, 6</t>
+  </si>
+  <si>
+    <t>9.3, 9, 10</t>
+  </si>
+  <si>
+    <t>9.5, 8.5, 9.5, 10.5, 8.5, 10, 11, 9.5, 10, 10, 9, 9.5, 9, 9.5, 10.5</t>
+  </si>
+  <si>
+    <t>9, 8.5, 9, 9, 10, 9.5, 9, 9.5, 9, 8.5, 9, 9, 9.5, 9, 8.5, 9.5, 10</t>
+  </si>
+  <si>
+    <t>9, 8.5, 8.5, 9, 9, 8.5, 8.5, 9, 8.5, 9, 9, 9</t>
+  </si>
+  <si>
+    <t>9.5, 9, 10, 8.5, 8, 9, 8.5, 8.5, 8, 9, 9.5, 10, 9</t>
+  </si>
+  <si>
+    <t>9, 9, 7.5, 9, 9, 9, 9.5, 7, 9, 7, 8, 10</t>
+  </si>
+  <si>
+    <t>6, 9.5, 10.5, 8.5, 8, 8, 9.5, 10, 9, 8.5, 8.5, 9.5, 9, 9, 9</t>
+  </si>
+  <si>
+    <t>8.5, 10, 7, 10.5, 9</t>
+  </si>
+  <si>
+    <t>9, 10, 6.8, 10, 6, 8.5, 11, 9.5, 9.5, 8.4, 5.8, 8.5</t>
+  </si>
+  <si>
+    <t>7.5, 7.5, 6.8, 7, 5.5, 6, 6</t>
+  </si>
+  <si>
+    <t>6.5, 7.5, 7.5</t>
+  </si>
+  <si>
+    <t>6.5, 7</t>
+  </si>
+  <si>
+    <t>8, 7, 7.5, 8</t>
+  </si>
+  <si>
+    <t>8.5, 8.5</t>
+  </si>
+  <si>
+    <t>11, 12.6</t>
+  </si>
+  <si>
+    <t>13.5, 16.5, 14.5</t>
+  </si>
+  <si>
+    <t>12.4, 10.9, 11.9, 14.5, 11.4, 9.5, 12.1, 12, 12, 12.2, 10.5, 13.5</t>
+  </si>
+  <si>
+    <t>10.5, 10, 10</t>
+  </si>
+  <si>
+    <t>10, 11.5, 10, 13.5, 11, 11.5, 10, 10.5, 10.5, 11, 11, 12, 15.5</t>
+  </si>
+  <si>
+    <t>14, 9.8, 13.5, 12, 10, 11, 9</t>
+  </si>
+  <si>
+    <t>9.5, 14, 14, 10, 8.5, 11, 10.5, 11, 9.5, 10.5, 8.5, 10, 10.25, 10.5, 8.5, 10, 9.5, 9, 15.5, 9.5, 9</t>
+  </si>
+  <si>
+    <t>11, 11, 10, 10, 10, 10, 11, 9.25, 10, 10.5, 10, 11, 9.5, 10, 9, 10, 14, 9.5, 10.75</t>
+  </si>
+  <si>
+    <t>10, 10, 10.5, 11, 12, 12.5, </t>
+  </si>
+  <si>
+    <t>10.5, 10.5, 9.5, 9.5, 9.5, 9, 9.5, 10, 9, 10, 9.5, 9.5, 14, 9.5, 10, 9.5, 9, 10.5, 9, 9, 9, 10, 9.5, 9</t>
+  </si>
+  <si>
+    <t>11, 9.5, 11, 10, 9.5, 10.5, 12, 13, 8.5, 10.5, 11.5, 12, 9.5, 9.1</t>
+  </si>
+  <si>
+    <t>10, 9, 10.5, 10.5, 10, 10.5, 10, 10, 10, 9, 10.5, 11</t>
+  </si>
+  <si>
+    <t>10.5, 9, 9, 10, 9.5, 10.5, 10, 10, 11, 10, 9, 9.5, 10, 11, 8.5</t>
+  </si>
+  <si>
+    <t>9, 12.5, 10.5, 11, 10, 9.5, 10, 9.5, 9, 10.5, 9, 9, 9, 9.5, 9, 10.5, 10.75, 10.5, 11, 9, 10.5, 10.5</t>
+  </si>
+  <si>
+    <t>9, 9.5, 9.5, 10, 9.5, 9, 8.75, 9.5, 10, 9.5, 10, 10.5</t>
+  </si>
+  <si>
+    <t>11.5, 8.5, 9.5, 8, 9, 9.5, 8, 10, 10.5, 10, 8.5, 8.5</t>
+  </si>
+  <si>
+    <t>10, 10.5, 12, 10, 10.5, 11, 11.5, 10.5, 9, 9.5, 8.5, 10.5, 9.5</t>
+  </si>
+  <si>
+    <t>9, 10, 10.5, 9, 11, 9.5, 9.5, 8.5, 9.5, 9, 9, 11.5, 11, 11, 10, 9.5</t>
+  </si>
+  <si>
+    <t>9.5, 9.5, 9.5, 10.5, 10.5, 9, 9, 11, 9.5, 10, 10, 9, 9.5</t>
+  </si>
+  <si>
+    <t>9, 10.5, 10, 9.5, 13, 11, 11, 13, 8.5, 9.5, 12, 10.5</t>
+  </si>
+  <si>
+    <t>5.5, 8.5, 5.6, 9, 10.4, 7.8, 9.4, 8, 10.2, 9, 10, 9.9</t>
+  </si>
+  <si>
+    <t>9.5, 8, 10.5, 10, 10.5</t>
+  </si>
+  <si>
+    <t>10, 9.5</t>
+  </si>
+  <si>
+    <t>10.5, 11, 8.2, 8.6, 8, 11.5, 11.5, 13.5, 11.5, 10.2, 11.5, 11.5</t>
+  </si>
+  <si>
+    <t>8, 9.5, 10</t>
+  </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>5.5, 5, 5.5</t>
+  </si>
 </sst>
 </file>
 
@@ -430,10 +620,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,8 +628,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,11 +654,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -476,20 +666,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -500,9 +698,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal 3" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 3" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="22" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -516,10 +714,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1751"/>
+  <dimension ref="A1:AF2297"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1565" activeCellId="0" sqref="B1565"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2250" activeCellId="0" sqref="K2250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27080,7 +27278,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="1565" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="8" t="n">
         <v>42539</v>
       </c>
@@ -30194,6 +30392,9355 @@
       <c r="P1751" s="10" t="n">
         <f aca="false">(8.75+9.5)/2</f>
         <v>9.125</v>
+      </c>
+    </row>
+    <row r="1753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1753" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B1753" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1753" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1753" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1754" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B1754" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1754" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1754" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1755" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B1755" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1755" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1755" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1756" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B1756" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1756" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1756" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1757" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B1757" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1757" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1757" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1758" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B1758" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1758" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1758" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1759" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B1759" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1759" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1759" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1760" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B1760" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1760" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1760" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1760" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="1761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1761" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B1761" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1761" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1761" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1761" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1762" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B1762" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1762" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1762" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1762" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1763" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B1763" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1763" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1763" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1763" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1764" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B1764" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1764" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1764" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1764" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1765" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B1765" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1765" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1765" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1765" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1766" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B1766" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1766" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1766" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1766" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1767" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B1767" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1767" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1767" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1767" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1768" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B1768" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1768" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1768" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1768" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1769" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B1769" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1769" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="D1769" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1769" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="1770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1770" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B1770" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1770" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1770" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1770" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1771" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B1771" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1771" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1771" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1771" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1772" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B1772" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1772" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1772" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1772" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1773" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B1773" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1773" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="D1773" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1773" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1774" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B1774" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1774" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1774" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1774" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1775" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B1775" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1775" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="D1775" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1775" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1776" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B1776" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1776" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="D1776" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1776" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1777" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B1777" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1777" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1777" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1777" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1778" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B1778" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1778" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D1778" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1778" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="1779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1779" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B1779" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1779" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D1779" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1779" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1780" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B1780" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1780" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D1780" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1780" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1781" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B1781" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1781" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1781" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1782" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B1782" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1782" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="D1782" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1783" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B1783" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1783" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1783" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1783" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1784" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B1784" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1784" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D1784" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1784" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="1785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1785" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B1785" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1785" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="D1785" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1785" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="1786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1786" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B1786" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1786" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D1786" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1786" s="0" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="1787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1787" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B1787" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1787" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1787" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1787" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1788" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B1788" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1788" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1788" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1788" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="1789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1789" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B1789" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1789" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1789" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1789" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="1790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1790" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B1790" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1790" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1790" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1790" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1791" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B1791" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1791" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1791" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1791" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1792" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B1792" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1792" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1792" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1792" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1793" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B1793" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1793" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1793" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1793" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1794" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B1794" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1794" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1794" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1794" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1795" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B1795" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1795" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1795" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1795" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1796" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B1796" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1796" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1796" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1796" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="1797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1797" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B1797" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1797" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1797" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1797" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1798" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B1798" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1798" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1798" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1798" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="1799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1799" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B1799" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1799" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1799" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1799" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1800" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B1800" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1800" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1800" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1800" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1801" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B1801" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1801" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1801" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1801" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="1802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1802" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B1802" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1802" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1802" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1802" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1803" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B1803" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1803" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1803" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1803" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="1804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1804" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B1804" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1804" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1804" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1804" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1805" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B1805" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1805" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1805" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1805" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="1806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1806" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B1806" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1806" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1806" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1806" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="1807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1807" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B1807" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1807" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1807" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1807" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="1808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1808" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B1808" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1808" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1808" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1808" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="1809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1809" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B1809" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1809" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1809" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1809" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="1810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1810" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B1810" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1810" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1810" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1810" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="1811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1811" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B1811" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1811" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1811" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1813" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B1813" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1813" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1814" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B1814" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1814" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1814" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1815" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B1815" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1815" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1815" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1816" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B1816" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1816" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1816" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1817" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B1817" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1817" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1817" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1818" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B1818" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1818" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1818" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1819" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B1819" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1819" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1819" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1820" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B1820" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1820" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1820" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1820" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="1821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1821" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B1821" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1821" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1821" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1821" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1822" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B1822" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1822" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1822" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1822" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1823" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B1823" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1823" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1823" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1823" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1824" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B1824" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1824" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1824" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1824" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1825" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B1825" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1825" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1825" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1825" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1826" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B1826" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1826" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1826" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1826" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1827" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B1827" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1827" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1827" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1827" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1828" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B1828" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1828" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1828" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1828" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1829" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B1829" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1829" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1829" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1829" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="1830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1830" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B1830" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1830" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1830" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1830" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1831" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B1831" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1831" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1831" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1831" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="1832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1832" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B1832" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1832" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1832" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1832" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1833" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B1833" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1833" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1833" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1833" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="1834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1834" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B1834" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1834" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1834" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1834" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="1835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1835" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B1835" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1835" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D1835" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1835" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1836" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B1836" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1836" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="D1836" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1836" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="1837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1837" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B1837" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1837" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1837" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1837" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="1838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1838" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B1838" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1838" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D1838" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1838" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="1839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1839" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B1839" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1839" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1839" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1839" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1840" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B1840" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1840" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1840" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1840" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1841" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B1841" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1841" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1841" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1842" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B1842" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1842" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1842" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1843" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B1843" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1843" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1843" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1843" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1844" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B1844" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1844" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="D1844" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1844" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="1845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1845" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B1845" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1845" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1845" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1845" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="1846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1846" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B1846" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1846" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D1846" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1846" s="0" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="1847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1847" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B1847" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1847" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D1847" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1847" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1848" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B1848" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1848" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1848" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1848" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="1849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1849" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B1849" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1849" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1849" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1849" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="1850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1850" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B1850" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1850" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D1850" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1850" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1851" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B1851" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1851" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1851" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1851" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1852" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B1852" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1852" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1852" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1852" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1853" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B1853" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1853" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1853" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1853" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1854" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B1854" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1854" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1854" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1854" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1855" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B1855" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1855" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1855" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1855" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1856" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B1856" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1856" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1856" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1856" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="1857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1857" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B1857" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1857" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1857" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1857" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1858" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B1858" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1858" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1858" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1858" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="1859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1859" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B1859" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1859" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1859" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1859" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1860" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B1860" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1860" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1860" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1860" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1861" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B1861" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1861" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1861" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1861" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="1862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1862" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B1862" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1862" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1862" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1862" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1863" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B1863" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1863" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1863" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1863" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="1864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1864" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B1864" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1864" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1864" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1864" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1865" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B1865" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1865" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1865" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1865" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="1866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1866" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B1866" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1866" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1866" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1866" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="1867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1867" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B1867" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1867" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1867" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1867" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="1868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1868" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B1868" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1868" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1868" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1868" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="1869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1869" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B1869" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1869" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1869" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1869" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="1870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1870" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B1870" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1870" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1870" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1870" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="1871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1871" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B1871" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1871" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1871" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1872" s="12"/>
+    </row>
+    <row r="1873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1873" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B1873" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1873" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1873" s="12"/>
+    </row>
+    <row r="1874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1874" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B1874" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1874" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1874" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1874" s="12"/>
+    </row>
+    <row r="1875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1875" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B1875" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1875" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1875" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1875" s="12"/>
+    </row>
+    <row r="1876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1876" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B1876" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1876" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1876" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1876" s="12"/>
+    </row>
+    <row r="1877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1877" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B1877" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1877" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1877" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1877" s="12"/>
+    </row>
+    <row r="1878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1878" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B1878" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1878" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1878" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1878" s="12"/>
+    </row>
+    <row r="1879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1879" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B1879" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1879" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1879" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1879" s="12"/>
+      <c r="AF1879" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="1880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1880" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B1880" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1880" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D1880" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1880" s="0" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="Q1880" s="12"/>
+      <c r="AF1880" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1881" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B1881" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1881" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D1881" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1881" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q1881" s="12"/>
+      <c r="AF1881" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1882" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B1882" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1882" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1882" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1882" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q1882" s="12"/>
+      <c r="AF1882" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1883" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B1883" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1883" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="D1883" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1883" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q1883" s="12"/>
+      <c r="AF1883" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="1884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1884" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B1884" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1884" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1884" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1884" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q1884" s="12"/>
+      <c r="AF1884" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1885" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B1885" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1885" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1885" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1885" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Q1885" s="12"/>
+      <c r="AF1885" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="1886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1886" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B1886" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1886" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1886" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1886" s="0" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="Q1886" s="12"/>
+      <c r="AF1886" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="1887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1887" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B1887" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1887" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1887" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1887" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q1887" s="12"/>
+      <c r="AF1887" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1888" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B1888" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1888" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1888" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1888" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1888" s="12"/>
+      <c r="AF1888" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="1889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1889" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B1889" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1889" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1889" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1889" s="0" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="Q1889" s="12"/>
+      <c r="AF1889" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1890" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B1890" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1890" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1890" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1890" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Q1890" s="12"/>
+      <c r="AF1890" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="1891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1891" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B1891" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1891" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1891" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1891" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="Q1891" s="12"/>
+      <c r="AF1891" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1892" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B1892" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1892" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1892" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1892" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Q1892" s="12"/>
+      <c r="AF1892" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="1893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1893" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B1893" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1893" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="D1893" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1893" s="0" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="Q1893" s="12"/>
+      <c r="AF1893" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="1894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1894" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B1894" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1894" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D1894" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1894" s="0" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="Q1894" s="12"/>
+      <c r="AF1894" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1895" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B1895" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1895" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D1895" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1895" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="Q1895" s="12"/>
+      <c r="AF1895" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="1896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1896" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B1896" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1896" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="D1896" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1896" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q1896" s="12"/>
+      <c r="AF1896" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="1897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1897" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B1897" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1897" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1897" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1897" s="0" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="Q1897" s="12"/>
+      <c r="AF1897" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="1898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1898" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B1898" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1898" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D1898" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1898" s="0" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="Q1898" s="12"/>
+      <c r="AF1898" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1899" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B1899" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1899" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1899" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1899" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q1899" s="12"/>
+      <c r="AF1899" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1900" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B1900" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1900" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1900" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1900" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q1900" s="12"/>
+    </row>
+    <row r="1901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1901" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B1901" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1901" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1901" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1901" s="12"/>
+    </row>
+    <row r="1902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1902" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B1902" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1902" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1902" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1902" s="12"/>
+      <c r="AF1902" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1903" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B1903" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1903" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1903" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1903" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q1903" s="12"/>
+      <c r="AF1903" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="1904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1904" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B1904" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1904" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1904" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1904" s="0" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="Q1904" s="12"/>
+      <c r="AF1904" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="1905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1905" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B1905" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1905" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1905" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1905" s="0" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="Q1905" s="12"/>
+      <c r="AF1905" s="0" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="1906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1906" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B1906" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1906" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1906" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1906" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="Q1906" s="12"/>
+      <c r="AF1906" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1907" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B1907" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1907" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1907" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1907" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q1907" s="12"/>
+      <c r="AF1907" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="1908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1908" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B1908" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1908" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1908" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1908" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q1908" s="12"/>
+      <c r="AF1908" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="1909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1909" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B1909" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1909" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1909" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1909" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q1909" s="12"/>
+      <c r="AF1909" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1910" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B1910" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1910" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1910" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1910" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q1910" s="12"/>
+      <c r="AF1910" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1911" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B1911" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1911" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1911" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1911" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q1911" s="12"/>
+      <c r="AF1911" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1912" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B1912" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1912" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1912" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1912" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q1912" s="12"/>
+      <c r="AF1912" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1913" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B1913" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1913" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1913" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1913" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q1913" s="12"/>
+      <c r="AF1913" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1914" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B1914" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1914" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1914" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1914" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q1914" s="12"/>
+      <c r="AF1914" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1915" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B1915" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1915" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1915" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1915" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q1915" s="12"/>
+      <c r="AF1915" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="1916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1916" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B1916" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1916" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1916" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1916" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Q1916" s="12"/>
+      <c r="AF1916" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1917" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B1917" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1917" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1917" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1917" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q1917" s="12"/>
+      <c r="AF1917" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="1918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1918" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B1918" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1918" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1918" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1918" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="Q1918" s="12"/>
+      <c r="AF1918" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1919" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B1919" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1919" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1919" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1919" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q1919" s="12"/>
+      <c r="AF1919" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1920" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B1920" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1920" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1920" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1920" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q1920" s="12"/>
+      <c r="AF1920" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="1921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1921" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B1921" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1921" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1921" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1921" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q1921" s="12"/>
+      <c r="AF1921" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1922" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B1922" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1922" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1922" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1922" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q1922" s="12"/>
+      <c r="AF1922" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="1923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1923" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B1923" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1923" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1923" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1923" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q1923" s="12"/>
+      <c r="AF1923" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1924" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B1924" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1924" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1924" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1924" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q1924" s="12"/>
+      <c r="AF1924" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="1925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1925" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B1925" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1925" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1925" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1925" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q1925" s="12"/>
+      <c r="AF1925" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="1926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1926" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B1926" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1926" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1926" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1926" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q1926" s="12"/>
+      <c r="AF1926" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="1927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1927" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B1927" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1927" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1927" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1927" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q1927" s="12"/>
+      <c r="AF1927" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="1928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1928" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B1928" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1928" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1928" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1928" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q1928" s="12"/>
+      <c r="AF1928" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="1929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1929" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B1929" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1929" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1929" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1929" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q1929" s="12"/>
+      <c r="AF1929" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="1930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1930" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B1930" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1930" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1930" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1930" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q1930" s="12"/>
+    </row>
+    <row r="1931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1931" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B1931" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1931" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1931" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1933" s="12"/>
+    </row>
+    <row r="1934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1934" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B1934" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1934" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1934" s="12"/>
+    </row>
+    <row r="1935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1935" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B1935" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1935" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1935" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1935" s="12"/>
+    </row>
+    <row r="1936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1936" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B1936" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1936" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1936" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1936" s="12"/>
+    </row>
+    <row r="1937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1937" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B1937" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1937" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1937" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1937" s="12"/>
+    </row>
+    <row r="1938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1938" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B1938" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1938" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1938" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1938" s="12"/>
+    </row>
+    <row r="1939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1939" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B1939" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1939" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1939" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1939" s="12"/>
+    </row>
+    <row r="1940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1940" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B1940" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1940" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1940" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1940" s="12"/>
+      <c r="AF1940" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="1941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1941" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B1941" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1941" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1941" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1941" s="0" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="Q1941" s="12"/>
+      <c r="AF1941" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1942" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B1942" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1942" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1942" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1942" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q1942" s="12"/>
+      <c r="AF1942" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1943" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B1943" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1943" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1943" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1943" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q1943" s="12"/>
+      <c r="AF1943" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1944" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B1944" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1944" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1944" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1944" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q1944" s="12"/>
+      <c r="AF1944" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="1945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1945" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B1945" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1945" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1945" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1945" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q1945" s="12"/>
+      <c r="AF1945" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1946" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B1946" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1946" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1946" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1946" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Q1946" s="12"/>
+      <c r="AF1946" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="1947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1947" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B1947" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1947" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1947" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1947" s="0" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="Q1947" s="12"/>
+      <c r="AF1947" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="1948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1948" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B1948" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1948" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1948" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1948" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q1948" s="12"/>
+      <c r="AF1948" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1949" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B1949" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1949" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1949" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1949" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1949" s="12"/>
+      <c r="AF1949" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="1950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1950" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B1950" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1950" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1950" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1950" s="0" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="Q1950" s="12"/>
+      <c r="AF1950" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1951" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B1951" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1951" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1951" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1951" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Q1951" s="12"/>
+      <c r="AF1951" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="1952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1952" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B1952" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1952" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1952" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1952" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="Q1952" s="12"/>
+      <c r="AF1952" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1953" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B1953" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1953" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1953" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1953" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Q1953" s="12"/>
+      <c r="AF1953" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="1954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1954" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B1954" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1954" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1954" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1954" s="0" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="Q1954" s="12"/>
+      <c r="AF1954" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="1955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1955" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B1955" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1955" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1955" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1955" s="0" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="Q1955" s="12"/>
+      <c r="AF1955" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="1956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1956" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B1956" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1956" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1956" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1956" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="Q1956" s="12"/>
+      <c r="AF1956" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="1957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1957" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B1957" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1957" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1957" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1957" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q1957" s="12"/>
+      <c r="AF1957" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="1958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1958" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B1958" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1958" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1958" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1958" s="0" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="Q1958" s="12"/>
+      <c r="AF1958" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="1959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1959" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B1959" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1959" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1959" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1959" s="0" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="Q1959" s="12"/>
+      <c r="AF1959" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1960" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B1960" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1960" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1960" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1960" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q1960" s="12"/>
+      <c r="AF1960" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1961" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B1961" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1961" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1961" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1961" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q1961" s="12"/>
+    </row>
+    <row r="1962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1962" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B1962" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1962" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1962" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1962" s="12"/>
+    </row>
+    <row r="1963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1963" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B1963" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1963" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1963" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1963" s="12"/>
+      <c r="AF1963" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1964" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B1964" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1964" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1964" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1964" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q1964" s="12"/>
+      <c r="AF1964" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="1965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1965" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B1965" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1965" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1965" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1965" s="0" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="Q1965" s="12"/>
+      <c r="AF1965" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="1966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1966" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B1966" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1966" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D1966" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1966" s="0" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="Q1966" s="12"/>
+      <c r="AF1966" s="0" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="1967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1967" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B1967" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1967" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="D1967" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1967" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="Q1967" s="12"/>
+      <c r="AF1967" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1968" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B1968" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1968" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1968" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1968" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q1968" s="12"/>
+      <c r="AF1968" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="1969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1969" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B1969" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1969" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1969" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1969" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q1969" s="12"/>
+      <c r="AF1969" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="1970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1970" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B1970" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1970" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1970" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1970" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q1970" s="12"/>
+      <c r="AF1970" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1971" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B1971" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1971" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1971" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1971" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q1971" s="12"/>
+      <c r="AF1971" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1972" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B1972" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1972" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1972" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1972" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q1972" s="12"/>
+      <c r="AF1972" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1973" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B1973" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1973" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1973" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1973" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q1973" s="12"/>
+      <c r="AF1973" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1974" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B1974" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1974" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1974" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1974" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q1974" s="12"/>
+      <c r="AF1974" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="1975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1975" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B1975" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1975" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1975" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1975" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q1975" s="12"/>
+      <c r="AF1975" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1976" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B1976" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1976" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1976" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1976" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q1976" s="12"/>
+      <c r="AF1976" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="1977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1977" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B1977" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1977" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1977" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1977" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Q1977" s="12"/>
+      <c r="AF1977" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1978" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B1978" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1978" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1978" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1978" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q1978" s="12"/>
+      <c r="AF1978" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="1979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1979" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B1979" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1979" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1979" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1979" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="Q1979" s="12"/>
+      <c r="AF1979" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1980" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B1980" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1980" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1980" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1980" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q1980" s="12"/>
+      <c r="AF1980" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="1981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1981" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B1981" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1981" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1981" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1981" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q1981" s="12"/>
+      <c r="AF1981" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="1982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1982" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B1982" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1982" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1982" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1982" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q1982" s="12"/>
+      <c r="AF1982" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1983" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B1983" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1983" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1983" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1983" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q1983" s="12"/>
+      <c r="AF1983" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="1984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1984" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B1984" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1984" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1984" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1984" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q1984" s="12"/>
+      <c r="AF1984" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1985" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B1985" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1985" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1985" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1985" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q1985" s="12"/>
+      <c r="AF1985" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="1986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1986" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B1986" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1986" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1986" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1986" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q1986" s="12"/>
+      <c r="AF1986" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="1987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1987" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B1987" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1987" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1987" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1987" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q1987" s="12"/>
+      <c r="AF1987" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="1988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1988" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B1988" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1988" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1988" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1988" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q1988" s="12"/>
+      <c r="AF1988" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="1989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1989" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B1989" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1989" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1989" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1989" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q1989" s="12"/>
+      <c r="AF1989" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="1990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1990" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B1990" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1990" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1990" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1990" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q1990" s="12"/>
+      <c r="AF1990" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="1991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1991" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B1991" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1991" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1991" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1991" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q1991" s="12"/>
+    </row>
+    <row r="1992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1992" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B1992" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1992" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1992" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1993" s="12"/>
+    </row>
+    <row r="1994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1994" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B1994" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1994" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1994" s="12"/>
+    </row>
+    <row r="1995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1995" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B1995" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1995" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1995" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1995" s="12"/>
+    </row>
+    <row r="1996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1996" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B1996" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1996" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1996" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1996" s="12"/>
+    </row>
+    <row r="1997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1997" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B1997" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1997" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1997" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1997" s="12"/>
+    </row>
+    <row r="1998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1998" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B1998" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1998" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1998" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1998" s="12"/>
+    </row>
+    <row r="1999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1999" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B1999" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1999" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1999" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1999" s="12"/>
+    </row>
+    <row r="2000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2000" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B2000" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2000" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2000" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2000" s="12"/>
+      <c r="AF2000" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="2001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2001" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B2001" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2001" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2001" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2001" s="0" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="Q2001" s="12"/>
+      <c r="AF2001" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="2002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2002" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B2002" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2002" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2002" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2002" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q2002" s="12"/>
+      <c r="AF2002" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="2003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2003" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B2003" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2003" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2003" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2003" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q2003" s="12"/>
+      <c r="AF2003" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="2004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2004" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B2004" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2004" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2004" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2004" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q2004" s="12"/>
+      <c r="AF2004" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="2005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2005" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B2005" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2005" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2005" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2005" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q2005" s="12"/>
+      <c r="AF2005" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="2006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2006" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B2006" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2006" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2006" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2006" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Q2006" s="12"/>
+      <c r="AF2006" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="2007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2007" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B2007" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2007" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2007" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2007" s="0" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="Q2007" s="12"/>
+      <c r="AF2007" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="2008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2008" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B2008" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2008" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2008" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2008" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q2008" s="12"/>
+      <c r="AF2008" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2009" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B2009" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2009" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2009" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2009" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q2009" s="12"/>
+      <c r="AF2009" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="2010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2010" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B2010" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2010" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2010" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2010" s="0" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="Q2010" s="12"/>
+      <c r="AF2010" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="2011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2011" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B2011" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2011" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2011" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2011" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Q2011" s="12"/>
+      <c r="AF2011" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="2012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2012" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B2012" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2012" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2012" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2012" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="Q2012" s="12"/>
+      <c r="AF2012" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="2013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2013" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B2013" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2013" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2013" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2013" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Q2013" s="12"/>
+      <c r="AF2013" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="2014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2014" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B2014" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2014" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2014" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2014" s="0" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="Q2014" s="12"/>
+      <c r="AF2014" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="2015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2015" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B2015" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2015" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2015" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2015" s="0" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="Q2015" s="12"/>
+      <c r="AF2015" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="2016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2016" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B2016" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2016" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2016" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2016" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="Q2016" s="12"/>
+      <c r="AF2016" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="2017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2017" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B2017" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2017" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2017" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2017" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q2017" s="12"/>
+      <c r="AF2017" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="2018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2018" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B2018" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2018" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2018" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2018" s="0" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="Q2018" s="12"/>
+      <c r="AF2018" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="2019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2019" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B2019" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2019" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2019" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2019" s="0" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="Q2019" s="12"/>
+      <c r="AF2019" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2020" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B2020" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2020" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2020" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2020" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q2020" s="12"/>
+      <c r="AF2020" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2021" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B2021" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2021" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2021" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2021" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2021" s="12"/>
+    </row>
+    <row r="2022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2022" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B2022" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2022" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2022" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2022" s="12"/>
+    </row>
+    <row r="2023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2023" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B2023" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2023" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2023" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2023" s="12"/>
+      <c r="AF2023" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2024" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B2024" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2024" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2024" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2024" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q2024" s="12"/>
+      <c r="AF2024" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="2025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2025" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B2025" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2025" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2025" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2025" s="0" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="Q2025" s="12"/>
+      <c r="AF2025" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="2026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2026" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B2026" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2026" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2026" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2026" s="0" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="Q2026" s="12"/>
+      <c r="AF2026" s="0" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="2027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2027" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B2027" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2027" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2027" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2027" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="Q2027" s="12"/>
+      <c r="AF2027" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2028" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B2028" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2028" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2028" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2028" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q2028" s="12"/>
+      <c r="AF2028" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="2029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2029" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B2029" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2029" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2029" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2029" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q2029" s="12"/>
+      <c r="AF2029" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="2030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2030" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B2030" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2030" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2030" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2030" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q2030" s="12"/>
+      <c r="AF2030" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2031" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B2031" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2031" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2031" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2031" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2031" s="12"/>
+      <c r="AF2031" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2032" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B2032" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2032" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2032" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2032" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2032" s="12"/>
+      <c r="AF2032" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2033" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B2033" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2033" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2033" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2033" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q2033" s="12"/>
+      <c r="AF2033" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2034" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B2034" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2034" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2034" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2034" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q2034" s="12"/>
+      <c r="AF2034" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2035" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B2035" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2035" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2035" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2035" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q2035" s="12"/>
+      <c r="AF2035" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2036" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B2036" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2036" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2036" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2036" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q2036" s="12"/>
+      <c r="AF2036" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="2037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2037" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B2037" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2037" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2037" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2037" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Q2037" s="12"/>
+      <c r="AF2037" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2038" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B2038" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2038" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2038" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2038" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q2038" s="12"/>
+      <c r="AF2038" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="2039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2039" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B2039" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2039" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2039" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2039" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="Q2039" s="12"/>
+      <c r="AF2039" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2040" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B2040" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2040" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2040" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2040" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2040" s="12"/>
+      <c r="AF2040" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2041" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B2041" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2041" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2041" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2041" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q2041" s="12"/>
+      <c r="AF2041" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="2042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2042" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B2042" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2042" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2042" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2042" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q2042" s="12"/>
+      <c r="AF2042" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2043" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B2043" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2043" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2043" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2043" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q2043" s="12"/>
+      <c r="AF2043" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="2044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2044" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B2044" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2044" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2044" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2044" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q2044" s="12"/>
+      <c r="AF2044" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2045" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B2045" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2045" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2045" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2045" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2045" s="12"/>
+      <c r="AF2045" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="2046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2046" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B2046" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2046" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2046" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2046" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q2046" s="12"/>
+      <c r="AF2046" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="2047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2047" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B2047" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2047" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2047" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2047" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q2047" s="12"/>
+      <c r="AF2047" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="2048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2048" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B2048" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2048" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2048" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2048" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2048" s="12"/>
+      <c r="AF2048" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="2049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2049" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B2049" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2049" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2049" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2049" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q2049" s="12"/>
+      <c r="AF2049" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="2050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2050" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B2050" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2050" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2050" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2050" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q2050" s="12"/>
+      <c r="AF2050" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="2051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2051" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B2051" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2051" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2051" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2051" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q2051" s="12"/>
+    </row>
+    <row r="2052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2052" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B2052" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2052" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2052" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2053" s="12"/>
+    </row>
+    <row r="2054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2054" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B2054" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2054" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2054" s="12"/>
+    </row>
+    <row r="2055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2055" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B2055" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2055" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2055" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2055" s="12"/>
+    </row>
+    <row r="2056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2056" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B2056" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2056" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2056" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2056" s="12"/>
+    </row>
+    <row r="2057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2057" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B2057" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2057" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2057" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2057" s="12"/>
+    </row>
+    <row r="2058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2058" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B2058" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2058" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2058" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2058" s="12"/>
+    </row>
+    <row r="2059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2059" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B2059" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2059" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2059" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2059" s="12"/>
+    </row>
+    <row r="2060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2060" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B2060" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2060" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2060" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2060" s="12"/>
+      <c r="AF2060" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="2061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2061" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B2061" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2061" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2061" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2061" s="0" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="Q2061" s="12"/>
+      <c r="AF2061" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="2062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2062" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B2062" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2062" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2062" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2062" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q2062" s="12"/>
+      <c r="AF2062" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="2063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2063" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B2063" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2063" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2063" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2063" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q2063" s="12"/>
+      <c r="AF2063" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="2064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2064" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B2064" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2064" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2064" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2064" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q2064" s="12"/>
+      <c r="AF2064" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="2065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2065" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B2065" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2065" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2065" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2065" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q2065" s="12"/>
+      <c r="AF2065" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="2066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2066" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B2066" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2066" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2066" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2066" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Q2066" s="12"/>
+      <c r="AF2066" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="2067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2067" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B2067" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2067" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2067" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2067" s="0" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="Q2067" s="12"/>
+      <c r="AF2067" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="2068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2068" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B2068" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2068" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2068" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2068" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q2068" s="12"/>
+      <c r="AF2068" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2069" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B2069" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2069" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2069" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2069" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q2069" s="12"/>
+      <c r="AF2069" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="2070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2070" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B2070" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2070" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2070" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2070" s="0" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="Q2070" s="12"/>
+      <c r="AF2070" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="2071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2071" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B2071" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2071" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2071" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2071" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Q2071" s="12"/>
+      <c r="AF2071" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="2072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2072" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B2072" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2072" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2072" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2072" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="Q2072" s="12"/>
+      <c r="AF2072" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="2073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2073" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B2073" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2073" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2073" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2073" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Q2073" s="12"/>
+      <c r="AF2073" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="2074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2074" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B2074" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2074" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2074" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2074" s="0" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="Q2074" s="12"/>
+      <c r="AF2074" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="2075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2075" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B2075" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2075" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2075" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2075" s="0" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="Q2075" s="12"/>
+      <c r="AF2075" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="2076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2076" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B2076" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2076" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2076" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2076" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="Q2076" s="12"/>
+      <c r="AF2076" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="2077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2077" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B2077" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2077" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2077" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2077" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q2077" s="12"/>
+      <c r="AF2077" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="2078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2078" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B2078" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2078" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2078" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2078" s="0" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="Q2078" s="12"/>
+      <c r="AF2078" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="2079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2079" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B2079" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2079" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2079" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2079" s="0" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="Q2079" s="12"/>
+      <c r="AF2079" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2080" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B2080" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2080" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2080" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2080" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q2080" s="12"/>
+      <c r="AF2080" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2081" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B2081" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2081" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2081" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2081" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2081" s="12"/>
+    </row>
+    <row r="2082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2082" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B2082" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2082" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2082" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2082" s="12"/>
+    </row>
+    <row r="2083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2083" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B2083" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2083" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2083" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2083" s="12"/>
+      <c r="AF2083" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2084" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B2084" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2084" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2084" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2084" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q2084" s="12"/>
+      <c r="AF2084" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="2085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2085" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B2085" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2085" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2085" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2085" s="0" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="Q2085" s="12"/>
+      <c r="AF2085" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="2086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2086" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B2086" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2086" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2086" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2086" s="0" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="Q2086" s="12"/>
+      <c r="AF2086" s="0" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="2087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2087" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B2087" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2087" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2087" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2087" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="Q2087" s="12"/>
+      <c r="AF2087" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2088" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B2088" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2088" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2088" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2088" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q2088" s="12"/>
+      <c r="AF2088" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="2089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2089" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B2089" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2089" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2089" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2089" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q2089" s="12"/>
+      <c r="AF2089" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="2090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2090" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B2090" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2090" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2090" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2090" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q2090" s="12"/>
+      <c r="AF2090" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2091" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B2091" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2091" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2091" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2091" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2091" s="12"/>
+      <c r="AF2091" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2092" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B2092" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2092" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2092" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2092" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2092" s="12"/>
+      <c r="AF2092" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2093" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B2093" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2093" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2093" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2093" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q2093" s="12"/>
+      <c r="AF2093" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2094" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B2094" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2094" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2094" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2094" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q2094" s="12"/>
+      <c r="AF2094" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2095" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B2095" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2095" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2095" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2095" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Q2095" s="12"/>
+      <c r="AF2095" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2096" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B2096" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2096" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2096" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2096" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q2096" s="12"/>
+      <c r="AF2096" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="2097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2097" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B2097" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2097" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2097" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2097" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Q2097" s="12"/>
+      <c r="AF2097" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2098" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B2098" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2098" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2098" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2098" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q2098" s="12"/>
+      <c r="AF2098" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="2099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2099" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B2099" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2099" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2099" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2099" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="Q2099" s="12"/>
+      <c r="AF2099" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2100" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B2100" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2100" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2100" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2100" s="12"/>
+      <c r="AF2100" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2101" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B2101" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2101" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2101" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q2101" s="12"/>
+      <c r="AF2101" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="2102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2102" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B2102" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2102" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2102" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q2102" s="12"/>
+      <c r="AF2102" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2103" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B2103" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2103" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2103" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Q2103" s="12"/>
+      <c r="AF2103" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="2104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2104" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B2104" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2104" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2104" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q2104" s="12"/>
+      <c r="AF2104" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2105" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B2105" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2105" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2105" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2105" s="12"/>
+      <c r="AF2105" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="2106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2106" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B2106" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2106" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2106" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q2106" s="12"/>
+      <c r="AF2106" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="2107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2107" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B2107" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2107" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2107" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q2107" s="12"/>
+      <c r="AF2107" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="2108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2108" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B2108" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2108" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2108" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2108" s="12"/>
+      <c r="AF2108" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="2109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2109" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B2109" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2109" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2109" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q2109" s="12"/>
+      <c r="AF2109" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="2110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2110" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B2110" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2110" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2110" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q2110" s="12"/>
+      <c r="AF2110" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="2111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2111" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B2111" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2111" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2111" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q2111" s="12"/>
+    </row>
+    <row r="2112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2112" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B2112" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2112" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2114" s="12"/>
+    </row>
+    <row r="2115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2115" s="12"/>
+    </row>
+    <row r="2116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2116" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2116" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2116" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2116" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2116" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2117" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B2117" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2117" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2117" s="13"/>
+    </row>
+    <row r="2118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2118" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B2118" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2118" s="13" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2119" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B2119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2119" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2119" s="13"/>
+    </row>
+    <row r="2120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2120" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B2120" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2120" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2120" s="13" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2121" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B2121" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2121" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2121" s="13"/>
+    </row>
+    <row r="2122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2122" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B2122" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2122" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2122" s="13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2123" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B2123" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2123" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2123" s="13"/>
+    </row>
+    <row r="2124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2124" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B2124" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2124" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2124" s="0" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="E2124" s="13" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2125" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B2125" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2125" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2125" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E2125" s="13"/>
+    </row>
+    <row r="2126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2126" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B2126" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2126" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2126" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E2126" s="13"/>
+    </row>
+    <row r="2127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2127" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B2127" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2127" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2127" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E2127" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2128" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B2128" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2128" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2128" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E2128" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2129" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B2129" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2129" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2129" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E2129" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2130" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B2130" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2130" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2130" s="0" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E2130" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2131" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B2131" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2131" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2131" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E2131" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2132" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B2132" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2132" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2132" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2132" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2133" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B2133" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2133" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2133" s="0" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E2133" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2134" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B2134" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2134" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2134" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E2134" s="13" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="2135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2135" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B2135" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2135" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2135" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="E2135" s="13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2136" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B2136" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2136" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2136" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E2136" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2137" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B2137" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2137" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2137" s="0" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="E2137" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2138" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B2138" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2138" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2138" s="0" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="E2138" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2139" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B2139" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2139" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2139" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="E2139" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2140" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B2140" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2140" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2140" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E2140" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2141" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B2141" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2141" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2141" s="0" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E2141" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2142" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B2142" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2142" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2142" s="0" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="E2142" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2143" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B2143" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2143" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2143" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E2143" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2144" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B2144" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2144" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2144" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2144" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2145" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B2145" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2145" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2145" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2146" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B2146" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2146" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2146" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2147" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B2147" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2147" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2147" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E2147" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2148" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B2148" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2148" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2148" s="0" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="E2148" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2149" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B2149" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2149" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2149" s="0" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="E2149" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2150" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B2150" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2150" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2150" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="E2150" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2151" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B2151" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2151" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2151" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E2151" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2152" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B2152" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2152" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2152" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E2152" s="13"/>
+    </row>
+    <row r="2153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2153" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B2153" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2153" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2153" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E2153" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2154" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B2154" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2154" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2154" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2154" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2155" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B2155" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2155" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2155" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2155" s="13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2156" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B2156" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2156" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2156" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E2156" s="13"/>
+    </row>
+    <row r="2157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2157" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B2157" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2157" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2157" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E2157" s="13"/>
+    </row>
+    <row r="2158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2158" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B2158" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2158" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2158" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E2158" s="13"/>
+    </row>
+    <row r="2159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2159" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B2159" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2159" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2159" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E2159" s="13"/>
+    </row>
+    <row r="2160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2160" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B2160" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2160" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2160" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E2160" s="13" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2161" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B2161" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2161" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2161" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E2161" s="13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2162" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B2162" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2162" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2162" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E2162" s="13"/>
+    </row>
+    <row r="2163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2163" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B2163" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2163" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2163" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2163" s="13"/>
+    </row>
+    <row r="2164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2164" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B2164" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2164" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2164" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E2164" s="13"/>
+    </row>
+    <row r="2165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2165" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B2165" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2165" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2165" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E2165" s="13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2166" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B2166" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2166" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2166" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E2166" s="13"/>
+    </row>
+    <row r="2167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2167" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B2167" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2167" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2167" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E2167" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2168" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B2168" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2168" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2168" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2168" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2169" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B2169" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2169" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2169" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E2169" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2170" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B2170" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2170" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2170" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E2170" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2171" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B2171" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2171" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2171" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E2171" s="13"/>
+    </row>
+    <row r="2172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2172" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B2172" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2172" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2172" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E2172" s="13"/>
+    </row>
+    <row r="2173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2173" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B2173" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2173" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2173" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E2173" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2174" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B2174" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2174" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2174" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E2174" s="13"/>
+    </row>
+    <row r="2175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2175" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B2175" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2175" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2175" s="13"/>
+    </row>
+    <row r="2177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2177" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2177" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2177" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2177" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2177" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2178" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B2178" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2178" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2179" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B2179" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2179" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2180" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B2180" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2180" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2181" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B2181" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2181" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2182" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B2182" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2182" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2183" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B2183" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2183" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2184" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B2184" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2184" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2185" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B2185" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2185" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2185" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="2186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2186" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B2186" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2186" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2186" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="2187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2187" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B2187" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2187" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2187" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E2187" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2188" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B2188" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2188" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2188" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E2188" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2189" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B2189" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2189" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2189" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="2190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2190" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B2190" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2190" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2190" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="2191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2191" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B2191" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2191" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2191" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="2192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2192" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B2192" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2192" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2192" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="2193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2193" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B2193" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2193" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2193" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2194" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B2194" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2194" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2194" s="0" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E2194" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2195" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B2195" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2195" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2195" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E2195" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2196" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B2196" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2196" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2196" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="E2196" s="0" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="2197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2197" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B2197" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2197" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2197" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E2197" s="0" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2198" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B2198" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2198" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2198" s="0" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="E2198" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2199" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B2199" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2199" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2199" s="0" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="E2199" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2200" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B2200" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2200" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2200" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="E2200" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2201" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B2201" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2201" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2201" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E2201" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2202" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B2202" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2202" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2202" s="0" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E2202" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2203" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B2203" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2203" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2203" s="0" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="E2203" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2204" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B2204" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2204" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2204" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E2204" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2205" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B2205" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2205" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2205" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2205" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2206" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B2206" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2206" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2206" s="0" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="2207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2207" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B2207" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2207" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2207" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2208" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B2208" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2208" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2208" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E2208" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2209" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B2209" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2209" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2209" s="0" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="E2209" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2210" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B2210" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2210" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2210" s="0" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="E2210" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2211" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B2211" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2211" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2211" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="E2211" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2212" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B2212" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2212" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2212" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E2212" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2213" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B2213" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2213" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2213" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E2213" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2214" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B2214" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2214" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2214" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E2214" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2215" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B2215" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2215" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2215" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2215" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2216" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B2216" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2216" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2216" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2216" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2217" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B2217" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2217" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2217" s="0" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2218" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B2218" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2218" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2218" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2219" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B2219" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2219" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2219" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2220" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B2220" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2220" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2220" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2221" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B2221" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2221" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2221" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E2221" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2222" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B2222" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2222" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2222" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2223" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B2223" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2223" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2223" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="2224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2224" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B2224" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2224" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2224" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2225" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B2225" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2225" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2225" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2226" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B2226" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2226" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2226" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="2227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2227" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B2227" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2227" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2227" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2228" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B2228" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2228" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2228" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E2228" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2229" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B2229" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2229" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2229" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2229" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2230" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B2230" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2230" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2230" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E2230" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2231" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B2231" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2231" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2231" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E2231" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2232" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B2232" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2232" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2232" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="2233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2233" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B2233" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2233" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2233" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="2234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2234" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B2234" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2234" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2234" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E2234" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2235" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B2235" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2235" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2235" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E2235" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2236" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B2236" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2236" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2238" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2238" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2238" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2238" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2238" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2239" s="12" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B2239" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2239" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2240" s="12" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B2240" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2240" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2241" s="12" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B2241" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2241" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2242" s="12" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B2242" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2242" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2243" s="12" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B2243" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2243" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2244" s="12" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B2244" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2244" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2245" s="12" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B2245" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2245" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2246" s="12" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B2246" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2246" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2246" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="2247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2247" s="12" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B2247" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2247" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2247" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="2248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2248" s="12" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B2248" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2248" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2248" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="2249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2249" s="12" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B2249" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2249" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2249" s="0" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="2250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2250" s="12" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B2250" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2250" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2250" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="2251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2251" s="12" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B2251" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2251" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2251" s="0" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="2252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2252" s="12" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B2252" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2252" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2252" s="0" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="2253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2253" s="12" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B2253" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2253" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2253" s="0" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="2254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2254" s="12" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B2254" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2254" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2254" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2255" s="12" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B2255" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2255" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2255" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="2256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2256" s="12" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B2256" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2256" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2256" s="0" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="2257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2257" s="12" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B2257" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2257" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2257" s="0" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="2258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2258" s="12" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B2258" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2258" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2258" s="0" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="2259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2259" s="12" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B2259" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2259" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2259" s="0" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="2260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2260" s="12" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B2260" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2260" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2260" s="0" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="2261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2261" s="12" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B2261" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2261" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2261" s="0" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="2262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2262" s="12" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B2262" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2262" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2262" s="0" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="2263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2263" s="12" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B2263" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2263" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2263" s="0" t="n">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="2264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2264" s="12" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B2264" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2264" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2264" s="0" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="2265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2265" s="12" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B2265" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2265" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2265" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2266" s="12" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B2266" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2266" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2266" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2267" s="12" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B2267" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2267" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2268" s="12" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B2268" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2268" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2269" s="12" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B2269" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2269" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2269" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2270" s="12" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B2270" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2270" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2270" s="0" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="2271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2271" s="12" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B2271" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2271" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2271" s="0" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="2272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2272" s="12" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B2272" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2272" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2272" s="0" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="E2272" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2273" s="12" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B2273" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2273" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2273" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2274" s="12" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B2274" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2274" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2274" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="2275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2275" s="12" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B2275" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2275" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2275" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E2275" s="0" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2276" s="12" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B2276" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2276" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2276" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2276" s="0" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="2277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2277" s="12" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B2277" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2277" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2277" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2278" s="12" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B2278" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2278" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2278" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E2278" s="0" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="2279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2279" s="12" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B2279" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2279" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2279" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2280" s="12" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B2280" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2280" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2280" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="2281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2281" s="12" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B2281" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2281" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2281" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2282" s="12" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B2282" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2282" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2282" s="0" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="2283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2283" s="12" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B2283" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2283" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2283" s="0" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="2284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2284" s="12" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B2284" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2284" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2284" s="0" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="2285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2285" s="12" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B2285" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2285" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2285" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2286" s="12" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B2286" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2286" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2286" s="0" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="2287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2287" s="12" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B2287" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2287" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2287" s="0" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="2288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2288" s="12" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B2288" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2288" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2288" s="0" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2289" s="12" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B2289" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2289" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2289" s="0" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="2290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2290" s="12" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B2290" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2290" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2290" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2291" s="12" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B2291" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2291" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2291" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="2292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2292" s="12" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B2292" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2292" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2292" s="0" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="2293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2293" s="12" t="n">
+        <v>43283</v>
+      </c>
+      <c r="B2293" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2293" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2293" s="0" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="2294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2294" s="12" t="n">
+        <v>43284</v>
+      </c>
+      <c r="B2294" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2294" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2294" s="0" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="2295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2295" s="12" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B2295" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2295" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2295" s="0" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="2296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2296" s="12" t="n">
+        <v>43286</v>
+      </c>
+      <c r="B2296" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2296" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2296" s="0" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="2297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2297" s="12" t="n">
+        <v>43287</v>
+      </c>
+      <c r="B2297" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2297" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
